--- a/Premium_test.xlsx
+++ b/Premium_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Documents\for project\pyth test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7761526-16CF-4299-A00B-12DCA5259220}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84A132-866A-4A9B-9F6C-AD2BADD9D0C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Address</t>
   </si>
@@ -205,6 +205,66 @@
   </si>
   <si>
     <t>10/12,18:00</t>
+  </si>
+  <si>
+    <t>10/17,00:00</t>
+  </si>
+  <si>
+    <t>10/17,06:00</t>
+  </si>
+  <si>
+    <t>10/17,12:00</t>
+  </si>
+  <si>
+    <t>10/17,18:00</t>
+  </si>
+  <si>
+    <t>10/18,00:00</t>
+  </si>
+  <si>
+    <t>10/18,06:00</t>
+  </si>
+  <si>
+    <t>10/18,12:00</t>
+  </si>
+  <si>
+    <t>10/18,18:00</t>
+  </si>
+  <si>
+    <t>10/19,00:00</t>
+  </si>
+  <si>
+    <t>10/19,06:00</t>
+  </si>
+  <si>
+    <t>10/19,12:00</t>
+  </si>
+  <si>
+    <t>10/19,18:00</t>
+  </si>
+  <si>
+    <t>10/20,00:00</t>
+  </si>
+  <si>
+    <t>10/20,06:00</t>
+  </si>
+  <si>
+    <t>10/20,12:00</t>
+  </si>
+  <si>
+    <t>10/20,18:00</t>
+  </si>
+  <si>
+    <t>10/21,18:00</t>
+  </si>
+  <si>
+    <t>10/21,00:00</t>
+  </si>
+  <si>
+    <t>10/21,06:00</t>
+  </si>
+  <si>
+    <t>10/21,12:00</t>
   </si>
 </sst>
 </file>
@@ -464,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -478,8 +538,8 @@
     <col min="9" max="10" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="87" width="7.59765625" customWidth="1"/>
+    <col min="14" max="42" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="43" max="87" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -549,26 +609,66 @@
       <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -682,6 +782,66 @@
       <c r="V2" s="2">
         <v>138.9</v>
       </c>
+      <c r="W2" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="X2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="3" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -750,6 +910,66 @@
       <c r="V3" s="2">
         <v>135.9</v>
       </c>
+      <c r="W3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="X3" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>135.6</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="4" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -818,6 +1038,66 @@
       <c r="V4" s="2">
         <v>138.9</v>
       </c>
+      <c r="W4" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="X4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="5" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -886,6 +1166,66 @@
       <c r="V5" s="2">
         <v>143.9</v>
       </c>
+      <c r="W5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="X5" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>143.9</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>143.9</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="6" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -954,6 +1294,66 @@
       <c r="V6" s="2">
         <v>128.9</v>
       </c>
+      <c r="W6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="X6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="7" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1022,6 +1422,66 @@
       <c r="V7" s="2">
         <v>130.6</v>
       </c>
+      <c r="W7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="X7" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="8" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1090,6 +1550,66 @@
       <c r="V8" s="2">
         <v>128.6</v>
       </c>
+      <c r="W8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="X8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="9" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1158,6 +1678,66 @@
       <c r="V9" s="2">
         <v>131.6</v>
       </c>
+      <c r="W9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="X9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="10" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1226,6 +1806,66 @@
       <c r="V10" s="2">
         <v>131.6</v>
       </c>
+      <c r="W10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="X10" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>127.9</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>125.3</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>127.9</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>127.9</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>125.6</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="11" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1294,6 +1934,66 @@
       <c r="V11" s="2">
         <v>138.9</v>
       </c>
+      <c r="W11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="X11" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="12" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1362,6 +2062,66 @@
       <c r="V12" s="2">
         <v>134.9</v>
       </c>
+      <c r="W12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="X12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="13" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1430,6 +2190,66 @@
       <c r="V13" s="2">
         <v>130.19999999999999</v>
       </c>
+      <c r="W13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="X13" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>139.6</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>130.19999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1498,6 +2318,66 @@
       <c r="V14" s="2">
         <v>132.9</v>
       </c>
+      <c r="W14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="X14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="15" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1566,6 +2446,66 @@
       <c r="V15" s="2">
         <v>130.19999999999999</v>
       </c>
+      <c r="W15" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="X15" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>132.1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>132.1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>132.1</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="16" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1634,8 +2574,68 @@
       <c r="V16" s="2">
         <v>132.6</v>
       </c>
+      <c r="W16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="X16" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>136.9</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1702,8 +2702,68 @@
       <c r="V17" s="2">
         <v>138.9</v>
       </c>
+      <c r="W17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="X17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>138.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1770,8 +2830,68 @@
       <c r="V18" s="2">
         <v>137.6</v>
       </c>
+      <c r="W18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="X18" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>136.6</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>136.6</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>138.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1838,8 +2958,68 @@
       <c r="V19" s="2">
         <v>132.9</v>
       </c>
+      <c r="W19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="X19" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>129.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1906,8 +3086,68 @@
       <c r="V20" s="2">
         <v>131.9</v>
       </c>
+      <c r="W20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="X20" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>137.9</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1974,8 +3214,68 @@
       <c r="V21" s="2">
         <v>138.9</v>
       </c>
+      <c r="W21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="X21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>138.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2042,8 +3342,68 @@
       <c r="V22" s="2">
         <v>142.9</v>
       </c>
+      <c r="W22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="X22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>141.9</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2110,8 +3470,68 @@
       <c r="V23" s="2">
         <v>140.9</v>
       </c>
+      <c r="W23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="X23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>136.9</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>142.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2178,8 +3598,68 @@
       <c r="V24" s="2">
         <v>135.9</v>
       </c>
+      <c r="W24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="X24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>135.9</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2246,8 +3726,68 @@
       <c r="V25" s="2">
         <v>149.9</v>
       </c>
+      <c r="W25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="X25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>149.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +3854,68 @@
       <c r="V26" s="2">
         <v>128.9</v>
       </c>
+      <c r="W26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="X26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>126.9</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>126.9</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>126.9</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>129.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2382,8 +3982,68 @@
       <c r="V27" s="2">
         <v>132.9</v>
       </c>
+      <c r="W27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="X27" s="2">
+        <v>125.9</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>125.9</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>127.3</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>125.9</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>125.9</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2450,8 +4110,68 @@
       <c r="V28" s="2">
         <v>130.9</v>
       </c>
+      <c r="W28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="X28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>131.9</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2518,18 +4238,78 @@
       <c r="V29" s="2">
         <v>122.4</v>
       </c>
+      <c r="W29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="X29" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>121.9</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>121.4</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>121.9</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>121.9</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>124.9</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
